--- a/www/ig/fhir/annuaire/StructureDefinition-as-dr-organization.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-dr-organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$192</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$224</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6246" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7248" uniqueCount="737">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-3</t>
+    <t>1.0.0-ballot-4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T15:19:17+00:00</t>
+    <t>2024-04-02T14:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>ANS</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
   </si>
   <si>
     <t>Contact</t>
@@ -1515,6 +1515,58 @@
     <t>Organization.type.extension</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Organization.type:organizationType.extension:as-ext-organization-types</t>
+  </si>
+  <si>
+    <t>as-ext-organization-types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-organization-types}
+</t>
+  </si>
+  <si>
+    <t>AS Organization Types</t>
+  </si>
+  <si>
+    <t>Extension pour discriminer les organization types.</t>
+  </si>
+  <si>
+    <t>Organization.type:organizationType.extension:as-ext-organization-types.id</t>
+  </si>
+  <si>
+    <t>Organization.type.extension.id</t>
+  </si>
+  <si>
+    <t>Organization.type:organizationType.extension:as-ext-organization-types.extension</t>
+  </si>
+  <si>
+    <t>Organization.type.extension.extension</t>
+  </si>
+  <si>
+    <t>Organization.type:organizationType.extension:as-ext-organization-types.url</t>
+  </si>
+  <si>
+    <t>Organization.type.extension.url</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-organization-types</t>
+  </si>
+  <si>
+    <t>Organization.type:organizationType.extension:as-ext-organization-types.value[x]</t>
+  </si>
+  <si>
+    <t>Organization.type.extension.value[x]</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/annuaire/ValueSet/as-vs-organization-types</t>
+  </si>
+  <si>
     <t>Organization.type:organizationType.coding</t>
   </si>
   <si>
@@ -1690,6 +1742,33 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J99-InseeNAFrav2Niveau5-RASS/FHIR/JDV-J99-InseeNAFrav2Niveau5-RASS</t>
   </si>
   <si>
+    <t>Organization.type:activiteINSEE.id</t>
+  </si>
+  <si>
+    <t>Organization.type:activiteINSEE.extension</t>
+  </si>
+  <si>
+    <t>Organization.type:activiteINSEE.extension:as-ext-organization-types</t>
+  </si>
+  <si>
+    <t>Organization.type:activiteINSEE.extension:as-ext-organization-types.id</t>
+  </si>
+  <si>
+    <t>Organization.type:activiteINSEE.extension:as-ext-organization-types.extension</t>
+  </si>
+  <si>
+    <t>Organization.type:activiteINSEE.extension:as-ext-organization-types.url</t>
+  </si>
+  <si>
+    <t>Organization.type:activiteINSEE.extension:as-ext-organization-types.value[x]</t>
+  </si>
+  <si>
+    <t>Organization.type:activiteINSEE.coding</t>
+  </si>
+  <si>
+    <t>Organization.type:activiteINSEE.text</t>
+  </si>
+  <si>
     <t>Organization.type:statutJuridiqueINSEE</t>
   </si>
   <si>
@@ -1702,6 +1781,33 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J100-FinessStatutJuridique-RASS/FHIR/JDV-J100-FinessStatutJuridique-RASS</t>
   </si>
   <si>
+    <t>Organization.type:statutJuridiqueINSEE.id</t>
+  </si>
+  <si>
+    <t>Organization.type:statutJuridiqueINSEE.extension</t>
+  </si>
+  <si>
+    <t>Organization.type:statutJuridiqueINSEE.extension:as-ext-organization-types</t>
+  </si>
+  <si>
+    <t>Organization.type:statutJuridiqueINSEE.extension:as-ext-organization-types.id</t>
+  </si>
+  <si>
+    <t>Organization.type:statutJuridiqueINSEE.extension:as-ext-organization-types.extension</t>
+  </si>
+  <si>
+    <t>Organization.type:statutJuridiqueINSEE.extension:as-ext-organization-types.url</t>
+  </si>
+  <si>
+    <t>Organization.type:statutJuridiqueINSEE.extension:as-ext-organization-types.value[x]</t>
+  </si>
+  <si>
+    <t>Organization.type:statutJuridiqueINSEE.coding</t>
+  </si>
+  <si>
+    <t>Organization.type:statutJuridiqueINSEE.text</t>
+  </si>
+  <si>
     <t>Organization.type:sphParticipation</t>
   </si>
   <si>
@@ -1714,6 +1820,33 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J162-ESPIC-RASS/FHIR/JDV-J162-ESPIC-RASS</t>
   </si>
   <si>
+    <t>Organization.type:sphParticipation.id</t>
+  </si>
+  <si>
+    <t>Organization.type:sphParticipation.extension</t>
+  </si>
+  <si>
+    <t>Organization.type:sphParticipation.extension:as-ext-organization-types</t>
+  </si>
+  <si>
+    <t>Organization.type:sphParticipation.extension:as-ext-organization-types.id</t>
+  </si>
+  <si>
+    <t>Organization.type:sphParticipation.extension:as-ext-organization-types.extension</t>
+  </si>
+  <si>
+    <t>Organization.type:sphParticipation.extension:as-ext-organization-types.url</t>
+  </si>
+  <si>
+    <t>Organization.type:sphParticipation.extension:as-ext-organization-types.value[x]</t>
+  </si>
+  <si>
+    <t>Organization.type:sphParticipation.coding</t>
+  </si>
+  <si>
+    <t>Organization.type:sphParticipation.text</t>
+  </si>
+  <si>
     <t>Organization.type:typeEtablissement</t>
   </si>
   <si>
@@ -1721,6 +1854,33 @@
   </si>
   <si>
     <t>Le type d’établissement détermine si c'est un établissement principal ou secondaire.</t>
+  </si>
+  <si>
+    <t>Organization.type:typeEtablissement.id</t>
+  </si>
+  <si>
+    <t>Organization.type:typeEtablissement.extension</t>
+  </si>
+  <si>
+    <t>Organization.type:typeEtablissement.extension:as-ext-organization-types</t>
+  </si>
+  <si>
+    <t>Organization.type:typeEtablissement.extension:as-ext-organization-types.id</t>
+  </si>
+  <si>
+    <t>Organization.type:typeEtablissement.extension:as-ext-organization-types.extension</t>
+  </si>
+  <si>
+    <t>Organization.type:typeEtablissement.extension:as-ext-organization-types.url</t>
+  </si>
+  <si>
+    <t>Organization.type:typeEtablissement.extension:as-ext-organization-types.value[x]</t>
+  </si>
+  <si>
+    <t>Organization.type:typeEtablissement.coding</t>
+  </si>
+  <si>
+    <t>Organization.type:typeEtablissement.text</t>
   </si>
   <si>
     <t>Organization.name</t>
@@ -1910,55 +2070,6 @@
   </si>
   <si>
     <t>Les BALs MSS de type ORG ou APP rattachées à une personne morale responsable de l’accès et de l’usage de la BAL (boiteLettreMSS).</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.id</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.extension</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.extension:emailType</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.extension:as-mailbox-mss-metadata</t>
-  </si>
-  <si>
-    <t>as-mailbox-mss-metadata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-mailbox-mss-metadata}
-</t>
-  </si>
-  <si>
-    <t>Les attributs 'responsible' et 'phone' ne sont pas disponibles en accès libre.</t>
-  </si>
-  <si>
-    <t>Extension contenant les métadonnées de la mailbox mss.</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.system</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.value</t>
-  </si>
-  <si>
-    <t>Boîte Aux Lettres (BAL) MSS</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.use</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.rank</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.period</t>
   </si>
   <si>
     <t>Organization.address</t>
@@ -2521,7 +2632,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ192"/>
+  <dimension ref="A1:AJ224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2530,7 +2641,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="67.16796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="80.17578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="40.16796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -14468,11 +14579,11 @@
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>75</v>
@@ -14490,14 +14601,12 @@
         <v>102</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>103</v>
+        <v>479</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="N117" s="2"/>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
         <v>73</v>
@@ -14563,12 +14672,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="C118" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="D118" t="s" s="2">
         <v>73</v>
       </c>
@@ -14586,23 +14697,19 @@
         <v>73</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>140</v>
+        <v>483</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>352</v>
+        <v>484</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>73</v>
       </c>
@@ -14650,7 +14757,7 @@
         <v>73</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>356</v>
+        <v>109</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>74</v>
@@ -14662,15 +14769,15 @@
         <v>93</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14767,21 +14874,21 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>73</v>
@@ -14796,14 +14903,12 @@
         <v>102</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>103</v>
+        <v>479</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="N120" s="2"/>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>73</v>
@@ -14869,10 +14974,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14892,35 +14997,33 @@
         <v>73</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K121" t="s" s="2">
         <v>128</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>363</v>
+        <v>205</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>364</v>
+        <v>206</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="T121" t="s" s="2">
-        <v>487</v>
+        <v>73</v>
       </c>
       <c r="U121" t="s" s="2">
         <v>73</v>
@@ -14956,27 +15059,27 @@
         <v>73</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>368</v>
+        <v>209</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14996,20 +15099,18 @@
         <v>73</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>371</v>
+        <v>213</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>73</v>
@@ -15019,7 +15120,7 @@
         <v>73</v>
       </c>
       <c r="S122" t="s" s="2">
-        <v>73</v>
+        <v>472</v>
       </c>
       <c r="T122" t="s" s="2">
         <v>73</v>
@@ -15034,13 +15135,11 @@
         <v>73</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="Y122" s="2"/>
       <c r="Z122" t="s" s="2">
-        <v>73</v>
+        <v>495</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>73</v>
@@ -15058,7 +15157,7 @@
         <v>73</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>374</v>
+        <v>215</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>74</v>
@@ -15075,10 +15174,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -15086,7 +15185,7 @@
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>81</v>
@@ -15101,19 +15200,19 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>492</v>
+        <v>352</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>73</v>
@@ -15162,13 +15261,13 @@
         <v>73</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>93</v>
@@ -15179,10 +15278,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15202,23 +15301,19 @@
         <v>73</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K124" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>384</v>
+        <v>97</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>73</v>
       </c>
@@ -15266,7 +15361,7 @@
         <v>73</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>387</v>
+        <v>99</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>74</v>
@@ -15275,29 +15370,29 @@
         <v>81</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>73</v>
@@ -15306,23 +15401,21 @@
         <v>73</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>390</v>
+        <v>102</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>391</v>
+        <v>103</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>392</v>
+        <v>104</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
         <v>73</v>
       </c>
@@ -15358,39 +15451,39 @@
         <v>73</v>
       </c>
       <c r="AB125" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="AC125" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AD125" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>395</v>
+        <v>109</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15398,7 +15491,7 @@
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>81</v>
@@ -15413,32 +15506,32 @@
         <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>73</v>
+        <v>504</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>73</v>
       </c>
       <c r="T126" t="s" s="2">
-        <v>73</v>
+        <v>504</v>
       </c>
       <c r="U126" t="s" s="2">
         <v>73</v>
@@ -15474,7 +15567,7 @@
         <v>73</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>74</v>
@@ -15491,14 +15584,12 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C127" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
         <v>73</v>
       </c>
@@ -15519,20 +15610,18 @@
         <v>82</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>290</v>
+        <v>96</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>464</v>
+        <v>371</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>465</v>
+        <v>372</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>73</v>
       </c>
@@ -15556,13 +15645,13 @@
         <v>73</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>285</v>
+        <v>73</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>501</v>
+        <v>73</v>
       </c>
       <c r="Z127" t="s" s="2">
-        <v>502</v>
+        <v>73</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>73</v>
@@ -15580,13 +15669,13 @@
         <v>73</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>463</v>
+        <v>374</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI127" t="s" s="2">
         <v>93</v>
@@ -15597,10 +15686,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>476</v>
+        <v>508</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -15620,19 +15709,23 @@
         <v>73</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>97</v>
+        <v>509</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="P128" t="s" s="2">
         <v>73</v>
       </c>
@@ -15680,7 +15773,7 @@
         <v>73</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>99</v>
+        <v>381</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>74</v>
@@ -15689,29 +15782,29 @@
         <v>81</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>478</v>
+        <v>511</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>73</v>
@@ -15720,21 +15813,23 @@
         <v>73</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>103</v>
+        <v>384</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>104</v>
+        <v>385</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="O129" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="P129" t="s" s="2">
         <v>73</v>
       </c>
@@ -15770,39 +15865,39 @@
         <v>73</v>
       </c>
       <c r="AB129" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="AC129" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="AD129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>109</v>
+        <v>387</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>480</v>
+        <v>513</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15810,7 +15905,7 @@
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>81</v>
@@ -15825,19 +15920,19 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>140</v>
+        <v>390</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>73</v>
@@ -15886,13 +15981,13 @@
         <v>73</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>93</v>
@@ -15903,10 +15998,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>482</v>
+        <v>515</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15926,19 +16021,23 @@
         <v>73</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K131" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>97</v>
+        <v>398</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O131" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="P131" t="s" s="2">
         <v>73</v>
       </c>
@@ -15986,7 +16085,7 @@
         <v>73</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>99</v>
+        <v>402</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>74</v>
@@ -15995,29 +16094,31 @@
         <v>81</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C132" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="C132" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="D132" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>73</v>
@@ -16026,21 +16127,23 @@
         <v>73</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>102</v>
+        <v>290</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>103</v>
+        <v>464</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>104</v>
+        <v>465</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="O132" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="O132" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="P132" t="s" s="2">
         <v>73</v>
       </c>
@@ -16064,31 +16167,31 @@
         <v>73</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>73</v>
+        <v>285</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>73</v>
+        <v>518</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>73</v>
+        <v>519</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AB132" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="AC132" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="AD132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>109</v>
+        <v>463</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>74</v>
@@ -16100,15 +16203,15 @@
         <v>93</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -16116,7 +16219,7 @@
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>81</v>
@@ -16128,35 +16231,31 @@
         <v>73</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>509</v>
+        <v>97</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q133" s="2"/>
       <c r="R133" t="s" s="2">
-        <v>510</v>
+        <v>73</v>
       </c>
       <c r="S133" t="s" s="2">
         <v>73</v>
       </c>
       <c r="T133" t="s" s="2">
-        <v>510</v>
+        <v>73</v>
       </c>
       <c r="U133" t="s" s="2">
         <v>73</v>
@@ -16192,7 +16291,7 @@
         <v>73</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>368</v>
+        <v>99</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>74</v>
@@ -16201,29 +16300,29 @@
         <v>81</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>73</v>
@@ -16232,19 +16331,19 @@
         <v>73</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>371</v>
+        <v>103</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>372</v>
+        <v>104</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>373</v>
+        <v>105</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
@@ -16282,39 +16381,39 @@
         <v>73</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="AC134" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AD134" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>374</v>
+        <v>109</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16322,7 +16421,7 @@
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>81</v>
@@ -16337,19 +16436,19 @@
         <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>492</v>
+        <v>352</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>73</v>
@@ -16398,13 +16497,13 @@
         <v>73</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>93</v>
@@ -16415,10 +16514,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -16438,23 +16537,19 @@
         <v>73</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K136" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>384</v>
+        <v>97</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
         <v>73</v>
       </c>
@@ -16502,7 +16597,7 @@
         <v>73</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>387</v>
+        <v>99</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>74</v>
@@ -16511,29 +16606,29 @@
         <v>81</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>73</v>
@@ -16542,23 +16637,21 @@
         <v>73</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>390</v>
+        <v>102</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>391</v>
+        <v>103</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>392</v>
+        <v>104</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O137" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
         <v>73</v>
       </c>
@@ -16594,39 +16687,39 @@
         <v>73</v>
       </c>
       <c r="AB137" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="AC137" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AD137" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>395</v>
+        <v>109</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -16634,7 +16727,7 @@
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>81</v>
@@ -16649,32 +16742,32 @@
         <v>82</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>398</v>
+        <v>526</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>399</v>
+        <v>526</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q138" s="2"/>
       <c r="R138" t="s" s="2">
-        <v>73</v>
+        <v>527</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="T138" t="s" s="2">
-        <v>73</v>
+        <v>527</v>
       </c>
       <c r="U138" t="s" s="2">
         <v>73</v>
@@ -16710,7 +16803,7 @@
         <v>73</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>74</v>
@@ -16727,14 +16820,12 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C139" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
         <v>73</v>
       </c>
@@ -16755,20 +16846,18 @@
         <v>82</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>290</v>
+        <v>96</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>464</v>
+        <v>371</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>465</v>
+        <v>372</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
         <v>73</v>
       </c>
@@ -16792,13 +16881,13 @@
         <v>73</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>285</v>
+        <v>73</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>518</v>
+        <v>73</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>519</v>
+        <v>73</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>73</v>
@@ -16816,13 +16905,13 @@
         <v>73</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>463</v>
+        <v>374</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI139" t="s" s="2">
         <v>93</v>
@@ -16833,10 +16922,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>476</v>
+        <v>508</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16856,19 +16945,23 @@
         <v>73</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>97</v>
+        <v>509</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N140" s="2"/>
-      <c r="O140" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O140" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="P140" t="s" s="2">
         <v>73</v>
       </c>
@@ -16916,7 +17009,7 @@
         <v>73</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>99</v>
+        <v>381</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>74</v>
@@ -16925,29 +17018,29 @@
         <v>81</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>478</v>
+        <v>511</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>73</v>
@@ -16956,21 +17049,23 @@
         <v>73</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>103</v>
+        <v>384</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>104</v>
+        <v>385</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="O141" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="O141" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="P141" t="s" s="2">
         <v>73</v>
       </c>
@@ -17006,39 +17101,39 @@
         <v>73</v>
       </c>
       <c r="AB141" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="AC141" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="AD141" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>109</v>
+        <v>387</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>480</v>
+        <v>513</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -17046,7 +17141,7 @@
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>81</v>
@@ -17061,19 +17156,19 @@
         <v>82</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>140</v>
+        <v>390</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>73</v>
@@ -17122,13 +17217,13 @@
         <v>73</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>93</v>
@@ -17139,10 +17234,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>482</v>
+        <v>515</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -17162,19 +17257,23 @@
         <v>73</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K143" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>97</v>
+        <v>398</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N143" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O143" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="P143" t="s" s="2">
         <v>73</v>
       </c>
@@ -17222,7 +17321,7 @@
         <v>73</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>99</v>
+        <v>402</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>74</v>
@@ -17231,29 +17330,31 @@
         <v>81</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C144" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="C144" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="D144" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G144" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>73</v>
@@ -17262,21 +17363,23 @@
         <v>73</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>102</v>
+        <v>290</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>103</v>
+        <v>464</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>104</v>
+        <v>465</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="O144" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="O144" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="P144" t="s" s="2">
         <v>73</v>
       </c>
@@ -17300,31 +17403,31 @@
         <v>73</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>73</v>
+        <v>285</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>73</v>
+        <v>535</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>73</v>
+        <v>536</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AB144" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="AC144" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="AD144" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>109</v>
+        <v>463</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>74</v>
@@ -17336,15 +17439,15 @@
         <v>93</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -17352,7 +17455,7 @@
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>81</v>
@@ -17364,29 +17467,25 @@
         <v>73</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>526</v>
+        <v>97</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O145" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q145" s="2"/>
       <c r="R145" t="s" s="2">
-        <v>527</v>
+        <v>73</v>
       </c>
       <c r="S145" t="s" s="2">
         <v>73</v>
@@ -17428,7 +17527,7 @@
         <v>73</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>368</v>
+        <v>99</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>74</v>
@@ -17437,29 +17536,29 @@
         <v>81</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G146" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H146" t="s" s="2">
         <v>73</v>
@@ -17468,19 +17567,19 @@
         <v>73</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>371</v>
+        <v>103</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>372</v>
+        <v>104</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>373</v>
+        <v>105</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
@@ -17518,39 +17617,39 @@
         <v>73</v>
       </c>
       <c r="AB146" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="AC146" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AD146" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>374</v>
+        <v>109</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH146" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI146" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17558,7 +17657,7 @@
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>81</v>
@@ -17573,19 +17672,19 @@
         <v>82</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>492</v>
+        <v>352</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>73</v>
@@ -17634,13 +17733,13 @@
         <v>73</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH147" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI147" t="s" s="2">
         <v>93</v>
@@ -17651,10 +17750,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -17674,23 +17773,19 @@
         <v>73</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>384</v>
+        <v>97</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N148" s="2"/>
+      <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
         <v>73</v>
       </c>
@@ -17738,7 +17833,7 @@
         <v>73</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>387</v>
+        <v>99</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>74</v>
@@ -17747,29 +17842,29 @@
         <v>81</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G149" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H149" t="s" s="2">
         <v>73</v>
@@ -17778,23 +17873,21 @@
         <v>73</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>390</v>
+        <v>102</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>391</v>
+        <v>103</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>392</v>
+        <v>104</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
         <v>73</v>
       </c>
@@ -17830,39 +17923,39 @@
         <v>73</v>
       </c>
       <c r="AB149" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="AC149" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AD149" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>395</v>
+        <v>109</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI149" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17870,7 +17963,7 @@
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>81</v>
@@ -17885,26 +17978,26 @@
         <v>82</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>398</v>
+        <v>543</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>399</v>
+        <v>543</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="O150" t="s" s="2">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q150" s="2"/>
       <c r="R150" t="s" s="2">
-        <v>73</v>
+        <v>544</v>
       </c>
       <c r="S150" t="s" s="2">
         <v>73</v>
@@ -17946,7 +18039,7 @@
         <v>73</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>74</v>
@@ -17963,14 +18056,12 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C151" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
         <v>73</v>
       </c>
@@ -17991,20 +18082,18 @@
         <v>82</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>290</v>
+        <v>96</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>535</v>
+        <v>371</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>465</v>
+        <v>372</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O151" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
         <v>73</v>
       </c>
@@ -18028,11 +18117,13 @@
         <v>73</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="Y151" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y151" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z151" t="s" s="2">
-        <v>536</v>
+        <v>73</v>
       </c>
       <c r="AA151" t="s" s="2">
         <v>73</v>
@@ -18050,13 +18141,13 @@
         <v>73</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>463</v>
+        <v>374</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI151" t="s" s="2">
         <v>93</v>
@@ -18067,14 +18158,12 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C152" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
         <v>73</v>
       </c>
@@ -18095,19 +18184,19 @@
         <v>82</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>290</v>
+        <v>162</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>465</v>
+        <v>378</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>466</v>
+        <v>379</v>
       </c>
       <c r="O152" t="s" s="2">
-        <v>467</v>
+        <v>380</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>73</v>
@@ -18132,11 +18221,13 @@
         <v>73</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="Y152" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y152" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z152" t="s" s="2">
-        <v>540</v>
+        <v>73</v>
       </c>
       <c r="AA152" t="s" s="2">
         <v>73</v>
@@ -18154,13 +18245,13 @@
         <v>73</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>463</v>
+        <v>381</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI152" t="s" s="2">
         <v>93</v>
@@ -18171,14 +18262,12 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C153" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
         <v>73</v>
       </c>
@@ -18199,19 +18288,19 @@
         <v>82</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>290</v>
+        <v>96</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>543</v>
+        <v>384</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>465</v>
+        <v>385</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>466</v>
+        <v>379</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>467</v>
+        <v>386</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>73</v>
@@ -18236,11 +18325,13 @@
         <v>73</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="Y153" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y153" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z153" t="s" s="2">
-        <v>544</v>
+        <v>73</v>
       </c>
       <c r="AA153" t="s" s="2">
         <v>73</v>
@@ -18258,13 +18349,13 @@
         <v>73</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>463</v>
+        <v>387</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI153" t="s" s="2">
         <v>93</v>
@@ -18275,14 +18366,12 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C154" t="s" s="2">
-        <v>546</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
         <v>73</v>
       </c>
@@ -18303,19 +18392,19 @@
         <v>82</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>547</v>
+        <v>391</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>465</v>
+        <v>392</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>466</v>
+        <v>393</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>467</v>
+        <v>394</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>73</v>
@@ -18340,13 +18429,13 @@
         <v>73</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>468</v>
+        <v>73</v>
       </c>
       <c r="Z154" t="s" s="2">
-        <v>469</v>
+        <v>73</v>
       </c>
       <c r="AA154" t="s" s="2">
         <v>73</v>
@@ -18364,13 +18453,13 @@
         <v>73</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>463</v>
+        <v>395</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH154" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI154" t="s" s="2">
         <v>93</v>
@@ -18381,10 +18470,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>548</v>
+        <v>515</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18398,7 +18487,7 @@
         <v>81</v>
       </c>
       <c r="H155" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I155" t="s" s="2">
         <v>73</v>
@@ -18410,16 +18499,16 @@
         <v>96</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>549</v>
+        <v>398</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>550</v>
+        <v>399</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>551</v>
+        <v>400</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>552</v>
+        <v>401</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>73</v>
@@ -18468,7 +18557,7 @@
         <v>73</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>548</v>
+        <v>402</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>74</v>
@@ -18477,7 +18566,7 @@
         <v>81</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>277</v>
+        <v>93</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>94</v>
@@ -18485,12 +18574,14 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="C156" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="C156" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="D156" t="s" s="2">
         <v>73</v>
       </c>
@@ -18499,31 +18590,31 @@
         <v>74</v>
       </c>
       <c r="G156" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I156" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J156" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="I156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J156" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="K156" t="s" s="2">
-        <v>96</v>
+        <v>290</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>555</v>
+        <v>465</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>556</v>
+        <v>466</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>557</v>
+        <v>467</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>73</v>
@@ -18548,13 +18639,11 @@
         <v>73</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y156" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="Y156" s="2"/>
       <c r="Z156" t="s" s="2">
-        <v>73</v>
+        <v>553</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>73</v>
@@ -18572,7 +18661,7 @@
         <v>73</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>553</v>
+        <v>463</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>74</v>
@@ -18589,10 +18678,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>558</v>
+        <v>476</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18603,10 +18692,10 @@
         <v>74</v>
       </c>
       <c r="G157" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I157" t="s" s="2">
         <v>73</v>
@@ -18615,20 +18704,16 @@
         <v>73</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>559</v>
+        <v>96</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>560</v>
+        <v>97</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N157" s="2"/>
+      <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
         <v>73</v>
       </c>
@@ -18664,37 +18749,39 @@
         <v>73</v>
       </c>
       <c r="AB157" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AC157" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AD157" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>558</v>
+        <v>99</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>565</v>
+        <v>73</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>566</v>
+        <v>73</v>
       </c>
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>567</v>
+        <v>478</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -18702,10 +18789,10 @@
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G158" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H158" t="s" s="2">
         <v>73</v>
@@ -18717,13 +18804,13 @@
         <v>73</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>97</v>
+        <v>479</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>98</v>
+        <v>480</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
@@ -18762,50 +18849,52 @@
         <v>73</v>
       </c>
       <c r="AB158" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="AC158" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AD158" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C159" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="C159" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="D159" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G159" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H159" t="s" s="2">
         <v>73</v>
@@ -18817,17 +18906,15 @@
         <v>73</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>102</v>
+        <v>483</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>103</v>
+        <v>484</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="N159" s="2"/>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
         <v>73</v>
@@ -18864,16 +18951,16 @@
         <v>73</v>
       </c>
       <c r="AB159" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="AC159" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="AD159" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>109</v>
@@ -18893,16 +18980,14 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C160" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" t="s" s="2">
@@ -18921,17 +19006,15 @@
         <v>73</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>571</v>
+        <v>96</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>572</v>
+        <v>97</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N160" s="2"/>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
         <v>73</v>
@@ -18980,27 +19063,27 @@
         <v>73</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>573</v>
+        <v>489</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -19008,10 +19091,10 @@
       </c>
       <c r="E161" s="2"/>
       <c r="F161" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G161" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H161" t="s" s="2">
         <v>73</v>
@@ -19020,20 +19103,18 @@
         <v>73</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>574</v>
+        <v>479</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="N161" s="2"/>
       <c r="O161" s="2"/>
       <c r="P161" t="s" s="2">
         <v>73</v>
@@ -19058,51 +19139,51 @@
         <v>73</v>
       </c>
       <c r="X161" t="s" s="2">
-        <v>285</v>
+        <v>73</v>
       </c>
       <c r="Y161" t="s" s="2">
-        <v>576</v>
+        <v>73</v>
       </c>
       <c r="Z161" t="s" s="2">
-        <v>577</v>
+        <v>73</v>
       </c>
       <c r="AA161" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AB161" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="AC161" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AD161" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>578</v>
+        <v>109</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH161" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>579</v>
+        <v>93</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>580</v>
+        <v>491</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -19122,29 +19203,27 @@
         <v>73</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>581</v>
+        <v>205</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>582</v>
+        <v>206</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>584</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="O162" s="2"/>
       <c r="P162" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q162" s="2"/>
       <c r="R162" t="s" s="2">
-        <v>73</v>
+        <v>492</v>
       </c>
       <c r="S162" t="s" s="2">
         <v>73</v>
@@ -19186,27 +19265,27 @@
         <v>73</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>585</v>
+        <v>209</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>586</v>
+        <v>494</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -19223,26 +19302,22 @@
         <v>73</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K163" t="s" s="2">
         <v>162</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>587</v>
+        <v>213</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>590</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
       <c r="P163" t="s" s="2">
         <v>73</v>
       </c>
@@ -19251,7 +19326,7 @@
         <v>73</v>
       </c>
       <c r="S163" t="s" s="2">
-        <v>73</v>
+        <v>551</v>
       </c>
       <c r="T163" t="s" s="2">
         <v>73</v>
@@ -19268,11 +19343,9 @@
       <c r="X163" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="Y163" t="s" s="2">
-        <v>591</v>
-      </c>
+      <c r="Y163" s="2"/>
       <c r="Z163" t="s" s="2">
-        <v>592</v>
+        <v>495</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>73</v>
@@ -19290,7 +19363,7 @@
         <v>73</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>593</v>
+        <v>215</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>74</v>
@@ -19307,10 +19380,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>594</v>
+        <v>561</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>594</v>
+        <v>497</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -19321,7 +19394,7 @@
         <v>74</v>
       </c>
       <c r="G164" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H164" t="s" s="2">
         <v>73</v>
@@ -19333,18 +19406,20 @@
         <v>82</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>595</v>
+        <v>140</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>596</v>
+        <v>352</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>597</v>
+        <v>353</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="O164" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="O164" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="P164" t="s" s="2">
         <v>73</v>
       </c>
@@ -19392,13 +19467,13 @@
         <v>73</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>599</v>
+        <v>356</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH164" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI164" t="s" s="2">
         <v>93</v>
@@ -19409,10 +19484,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>600</v>
+        <v>562</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>600</v>
+        <v>515</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -19435,18 +19510,20 @@
         <v>82</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>601</v>
+        <v>398</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>602</v>
+        <v>399</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O165" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="O165" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="P165" t="s" s="2">
         <v>73</v>
       </c>
@@ -19494,7 +19571,7 @@
         <v>73</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>603</v>
+        <v>402</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>74</v>
@@ -19506,18 +19583,18 @@
         <v>93</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>316</v>
+        <v>94</v>
       </c>
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>604</v>
+        <v>563</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>558</v>
+        <v>463</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="D166" t="s" s="2">
         <v>73</v>
@@ -19527,7 +19604,7 @@
         <v>74</v>
       </c>
       <c r="G166" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H166" t="s" s="2">
         <v>73</v>
@@ -19536,22 +19613,22 @@
         <v>73</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>606</v>
+        <v>290</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>607</v>
+        <v>565</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>561</v>
+        <v>465</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>562</v>
+        <v>466</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>563</v>
+        <v>467</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>73</v>
@@ -19576,13 +19653,11 @@
         <v>73</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y166" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="Y166" s="2"/>
       <c r="Z166" t="s" s="2">
-        <v>73</v>
+        <v>566</v>
       </c>
       <c r="AA166" t="s" s="2">
         <v>73</v>
@@ -19600,7 +19675,7 @@
         <v>73</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>558</v>
+        <v>463</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>74</v>
@@ -19612,15 +19687,15 @@
         <v>93</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>566</v>
+        <v>94</v>
       </c>
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>608</v>
+        <v>567</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>567</v>
+        <v>476</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -19717,18 +19792,18 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>609</v>
+        <v>568</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>568</v>
+        <v>478</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>75</v>
@@ -19746,14 +19821,12 @@
         <v>102</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>103</v>
+        <v>479</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="N168" s="2"/>
       <c r="O168" s="2"/>
       <c r="P168" t="s" s="2">
         <v>73</v>
@@ -19819,20 +19892,20 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>610</v>
+        <v>569</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>568</v>
+        <v>478</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>570</v>
+        <v>482</v>
       </c>
       <c r="D169" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>81</v>
@@ -19847,13 +19920,13 @@
         <v>73</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>571</v>
+        <v>483</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>572</v>
+        <v>484</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>191</v>
+        <v>485</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
@@ -19921,14 +19994,12 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>611</v>
+        <v>570</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C170" t="s" s="2">
-        <v>612</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
         <v>73</v>
       </c>
@@ -19940,7 +20011,7 @@
         <v>81</v>
       </c>
       <c r="H170" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I170" t="s" s="2">
         <v>73</v>
@@ -19949,13 +20020,13 @@
         <v>73</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>613</v>
+        <v>96</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>614</v>
+        <v>97</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>615</v>
+        <v>98</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
@@ -20006,27 +20077,27 @@
         <v>73</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH170" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>616</v>
+        <v>571</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>573</v>
+        <v>489</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -20034,10 +20105,10 @@
       </c>
       <c r="E171" s="2"/>
       <c r="F171" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G171" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H171" t="s" s="2">
         <v>73</v>
@@ -20046,20 +20117,18 @@
         <v>73</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>574</v>
+        <v>479</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="N171" s="2"/>
       <c r="O171" s="2"/>
       <c r="P171" t="s" s="2">
         <v>73</v>
@@ -20069,7 +20138,7 @@
         <v>73</v>
       </c>
       <c r="S171" t="s" s="2">
-        <v>617</v>
+        <v>73</v>
       </c>
       <c r="T171" t="s" s="2">
         <v>73</v>
@@ -20084,51 +20153,51 @@
         <v>73</v>
       </c>
       <c r="X171" t="s" s="2">
-        <v>285</v>
+        <v>73</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>576</v>
+        <v>73</v>
       </c>
       <c r="Z171" t="s" s="2">
-        <v>577</v>
+        <v>73</v>
       </c>
       <c r="AA171" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AB171" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="AC171" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AD171" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>578</v>
+        <v>109</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>579</v>
+        <v>93</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>618</v>
+        <v>572</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>580</v>
+        <v>491</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -20142,35 +20211,33 @@
         <v>81</v>
       </c>
       <c r="H172" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I172" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>619</v>
+        <v>205</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>582</v>
+        <v>206</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="O172" t="s" s="2">
-        <v>584</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="O172" s="2"/>
       <c r="P172" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q172" s="2"/>
       <c r="R172" t="s" s="2">
-        <v>73</v>
+        <v>492</v>
       </c>
       <c r="S172" t="s" s="2">
         <v>73</v>
@@ -20212,27 +20279,27 @@
         <v>73</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>585</v>
+        <v>209</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>620</v>
+        <v>573</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>586</v>
+        <v>494</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -20249,26 +20316,22 @@
         <v>73</v>
       </c>
       <c r="I173" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K173" t="s" s="2">
         <v>162</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>587</v>
+        <v>213</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="O173" t="s" s="2">
-        <v>590</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N173" s="2"/>
+      <c r="O173" s="2"/>
       <c r="P173" t="s" s="2">
         <v>73</v>
       </c>
@@ -20277,7 +20340,7 @@
         <v>73</v>
       </c>
       <c r="S173" t="s" s="2">
-        <v>73</v>
+        <v>564</v>
       </c>
       <c r="T173" t="s" s="2">
         <v>73</v>
@@ -20294,11 +20357,9 @@
       <c r="X173" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="Y173" t="s" s="2">
-        <v>591</v>
-      </c>
+      <c r="Y173" s="2"/>
       <c r="Z173" t="s" s="2">
-        <v>592</v>
+        <v>495</v>
       </c>
       <c r="AA173" t="s" s="2">
         <v>73</v>
@@ -20316,7 +20377,7 @@
         <v>73</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>593</v>
+        <v>215</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>74</v>
@@ -20333,10 +20394,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>622</v>
+        <v>574</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>594</v>
+        <v>497</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20347,7 +20408,7 @@
         <v>74</v>
       </c>
       <c r="G174" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H174" t="s" s="2">
         <v>73</v>
@@ -20359,18 +20420,20 @@
         <v>82</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>595</v>
+        <v>140</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>596</v>
+        <v>352</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>597</v>
+        <v>353</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="O174" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="O174" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="P174" t="s" s="2">
         <v>73</v>
       </c>
@@ -20418,13 +20481,13 @@
         <v>73</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>599</v>
+        <v>356</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH174" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI174" t="s" s="2">
         <v>93</v>
@@ -20435,10 +20498,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>623</v>
+        <v>575</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>600</v>
+        <v>515</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20461,18 +20524,20 @@
         <v>82</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>601</v>
+        <v>398</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>602</v>
+        <v>399</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O175" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="O175" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="P175" t="s" s="2">
         <v>73</v>
       </c>
@@ -20520,7 +20585,7 @@
         <v>73</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>603</v>
+        <v>402</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>74</v>
@@ -20532,17 +20597,19 @@
         <v>93</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>316</v>
+        <v>94</v>
       </c>
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>624</v>
+        <v>576</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="C176" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="C176" t="s" s="2">
+        <v>577</v>
+      </c>
       <c r="D176" t="s" s="2">
         <v>73</v>
       </c>
@@ -20551,31 +20618,31 @@
         <v>74</v>
       </c>
       <c r="G176" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H176" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I176" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J176" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="I176" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J176" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="K176" t="s" s="2">
-        <v>625</v>
+        <v>290</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>626</v>
+        <v>578</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>627</v>
+        <v>465</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>628</v>
+        <v>466</v>
       </c>
       <c r="O176" t="s" s="2">
-        <v>629</v>
+        <v>467</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>73</v>
@@ -20600,13 +20667,11 @@
         <v>73</v>
       </c>
       <c r="X176" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y176" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="Y176" s="2"/>
       <c r="Z176" t="s" s="2">
-        <v>73</v>
+        <v>579</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>73</v>
@@ -20624,7 +20689,7 @@
         <v>73</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>624</v>
+        <v>463</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>74</v>
@@ -20636,15 +20701,15 @@
         <v>93</v>
       </c>
       <c r="AJ176" t="s" s="2">
-        <v>630</v>
+        <v>94</v>
       </c>
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>631</v>
+        <v>580</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>631</v>
+        <v>476</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20664,23 +20729,19 @@
         <v>73</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>632</v>
+        <v>96</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>633</v>
+        <v>97</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="O177" t="s" s="2">
-        <v>636</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N177" s="2"/>
+      <c r="O177" s="2"/>
       <c r="P177" t="s" s="2">
         <v>73</v>
       </c>
@@ -20728,7 +20789,7 @@
         <v>73</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>631</v>
+        <v>99</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>74</v>
@@ -20737,18 +20798,18 @@
         <v>81</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>323</v>
+        <v>73</v>
       </c>
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>637</v>
+        <v>581</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>637</v>
+        <v>478</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -20756,10 +20817,10 @@
       </c>
       <c r="E178" s="2"/>
       <c r="F178" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G178" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H178" t="s" s="2">
         <v>73</v>
@@ -20771,13 +20832,13 @@
         <v>73</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>97</v>
+        <v>479</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>98</v>
+        <v>480</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
@@ -20816,50 +20877,52 @@
         <v>73</v>
       </c>
       <c r="AB178" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="AC178" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AD178" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH178" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>638</v>
+        <v>582</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="C179" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="C179" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="D179" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G179" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H179" t="s" s="2">
         <v>73</v>
@@ -20871,17 +20934,15 @@
         <v>73</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>102</v>
+        <v>483</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>103</v>
+        <v>484</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="N179" s="2"/>
       <c r="O179" s="2"/>
       <c r="P179" t="s" s="2">
         <v>73</v>
@@ -20918,16 +20979,16 @@
         <v>73</v>
       </c>
       <c r="AB179" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="AC179" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="AD179" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>109</v>
@@ -20947,10 +21008,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>639</v>
+        <v>583</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>639</v>
+        <v>487</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -20970,20 +21031,18 @@
         <v>73</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K180" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>640</v>
+        <v>97</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>642</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N180" s="2"/>
       <c r="O180" s="2"/>
       <c r="P180" t="s" s="2">
         <v>73</v>
@@ -21032,7 +21091,7 @@
         <v>73</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>643</v>
+        <v>99</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>74</v>
@@ -21041,18 +21100,18 @@
         <v>81</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>644</v>
+        <v>73</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>645</v>
+        <v>584</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>645</v>
+        <v>489</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -21063,7 +21122,7 @@
         <v>74</v>
       </c>
       <c r="G181" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H181" t="s" s="2">
         <v>73</v>
@@ -21072,20 +21131,18 @@
         <v>73</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>646</v>
+        <v>479</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>648</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="N181" s="2"/>
       <c r="O181" s="2"/>
       <c r="P181" t="s" s="2">
         <v>73</v>
@@ -21110,51 +21167,51 @@
         <v>73</v>
       </c>
       <c r="X181" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="Y181" t="s" s="2">
-        <v>649</v>
+        <v>73</v>
       </c>
       <c r="Z181" t="s" s="2">
-        <v>474</v>
+        <v>73</v>
       </c>
       <c r="AA181" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AB181" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="AC181" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AD181" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>650</v>
+        <v>109</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH181" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI181" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ181" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>651</v>
+        <v>585</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>651</v>
+        <v>491</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21162,7 +21219,7 @@
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G182" t="s" s="2">
         <v>81</v>
@@ -21174,19 +21231,19 @@
         <v>73</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>271</v>
+        <v>128</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>652</v>
+        <v>205</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>653</v>
+        <v>206</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>654</v>
+        <v>207</v>
       </c>
       <c r="O182" s="2"/>
       <c r="P182" t="s" s="2">
@@ -21194,7 +21251,7 @@
       </c>
       <c r="Q182" s="2"/>
       <c r="R182" t="s" s="2">
-        <v>73</v>
+        <v>492</v>
       </c>
       <c r="S182" t="s" s="2">
         <v>73</v>
@@ -21236,27 +21293,27 @@
         <v>73</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>655</v>
+        <v>209</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>656</v>
+        <v>586</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>656</v>
+        <v>494</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -21276,20 +21333,18 @@
         <v>73</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>657</v>
+        <v>213</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="N183" t="s" s="2">
-        <v>659</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N183" s="2"/>
       <c r="O183" s="2"/>
       <c r="P183" t="s" s="2">
         <v>73</v>
@@ -21299,7 +21354,7 @@
         <v>73</v>
       </c>
       <c r="S183" t="s" s="2">
-        <v>73</v>
+        <v>577</v>
       </c>
       <c r="T183" t="s" s="2">
         <v>73</v>
@@ -21314,13 +21369,11 @@
         <v>73</v>
       </c>
       <c r="X183" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y183" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="Y183" s="2"/>
       <c r="Z183" t="s" s="2">
-        <v>73</v>
+        <v>495</v>
       </c>
       <c r="AA183" t="s" s="2">
         <v>73</v>
@@ -21338,7 +21391,7 @@
         <v>73</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>660</v>
+        <v>215</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>74</v>
@@ -21355,10 +21408,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>661</v>
+        <v>587</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>661</v>
+        <v>497</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21378,22 +21431,22 @@
         <v>73</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>662</v>
+        <v>140</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>663</v>
+        <v>352</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>664</v>
+        <v>353</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>665</v>
+        <v>354</v>
       </c>
       <c r="O184" t="s" s="2">
-        <v>666</v>
+        <v>355</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>73</v>
@@ -21442,7 +21495,7 @@
         <v>73</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>661</v>
+        <v>356</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>74</v>
@@ -21459,10 +21512,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>667</v>
+        <v>588</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>667</v>
+        <v>515</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21482,19 +21535,23 @@
         <v>73</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K185" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>97</v>
+        <v>398</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N185" s="2"/>
-      <c r="O185" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N185" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O185" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="P185" t="s" s="2">
         <v>73</v>
       </c>
@@ -21542,7 +21599,7 @@
         <v>73</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>99</v>
+        <v>402</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>74</v>
@@ -21551,29 +21608,31 @@
         <v>81</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ185" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>668</v>
+        <v>589</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="C186" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="C186" t="s" s="2">
+        <v>590</v>
+      </c>
       <c r="D186" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G186" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H186" t="s" s="2">
         <v>73</v>
@@ -21582,21 +21641,23 @@
         <v>73</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>102</v>
+        <v>290</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>103</v>
+        <v>591</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>104</v>
+        <v>465</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="O186" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="O186" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="P186" t="s" s="2">
         <v>73</v>
       </c>
@@ -21620,31 +21681,31 @@
         <v>73</v>
       </c>
       <c r="X186" t="s" s="2">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="Y186" t="s" s="2">
-        <v>73</v>
+        <v>468</v>
       </c>
       <c r="Z186" t="s" s="2">
-        <v>73</v>
+        <v>469</v>
       </c>
       <c r="AA186" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AB186" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="AC186" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="AD186" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>109</v>
+        <v>463</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>74</v>
@@ -21656,51 +21717,47 @@
         <v>93</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>669</v>
+        <v>592</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>669</v>
+        <v>476</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
-        <v>670</v>
+        <v>73</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G187" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H187" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I187" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>671</v>
+        <v>97</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N187" s="2"/>
+      <c r="O187" s="2"/>
       <c r="P187" t="s" s="2">
         <v>73</v>
       </c>
@@ -21748,27 +21805,27 @@
         <v>73</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>673</v>
+        <v>99</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH187" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>674</v>
+        <v>593</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>674</v>
+        <v>478</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -21776,10 +21833,10 @@
       </c>
       <c r="E188" s="2"/>
       <c r="F188" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G188" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H188" t="s" s="2">
         <v>73</v>
@@ -21791,20 +21848,16 @@
         <v>73</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>290</v>
+        <v>102</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>675</v>
+        <v>479</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="O188" t="s" s="2">
-        <v>678</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="N188" s="2"/>
+      <c r="O188" s="2"/>
       <c r="P188" t="s" s="2">
         <v>73</v>
       </c>
@@ -21828,59 +21881,61 @@
         <v>73</v>
       </c>
       <c r="X188" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>679</v>
+        <v>73</v>
       </c>
       <c r="Z188" t="s" s="2">
-        <v>680</v>
+        <v>73</v>
       </c>
       <c r="AA188" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AB188" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="AC188" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AD188" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>674</v>
+        <v>109</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH188" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI188" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>681</v>
+        <v>594</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="C189" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="C189" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="D189" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G189" t="s" s="2">
         <v>81</v>
@@ -21895,20 +21950,16 @@
         <v>73</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>682</v>
+        <v>483</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>683</v>
+        <v>484</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="N189" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="O189" t="s" s="2">
-        <v>686</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="N189" s="2"/>
+      <c r="O189" s="2"/>
       <c r="P189" t="s" s="2">
         <v>73</v>
       </c>
@@ -21956,27 +22007,27 @@
         <v>73</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>681</v>
+        <v>109</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH189" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI189" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ189" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>687</v>
+        <v>595</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>687</v>
+        <v>487</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -21987,7 +22038,7 @@
         <v>74</v>
       </c>
       <c r="G190" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H190" t="s" s="2">
         <v>73</v>
@@ -21999,18 +22050,16 @@
         <v>73</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>559</v>
+        <v>96</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>688</v>
+        <v>97</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>561</v>
+        <v>98</v>
       </c>
       <c r="N190" s="2"/>
-      <c r="O190" t="s" s="2">
-        <v>689</v>
-      </c>
+      <c r="O190" s="2"/>
       <c r="P190" t="s" s="2">
         <v>73</v>
       </c>
@@ -22058,27 +22107,27 @@
         <v>73</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>687</v>
+        <v>99</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH190" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI190" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ190" t="s" s="2">
-        <v>690</v>
+        <v>73</v>
       </c>
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>691</v>
+        <v>596</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>691</v>
+        <v>489</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -22089,7 +22138,7 @@
         <v>74</v>
       </c>
       <c r="G191" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H191" t="s" s="2">
         <v>73</v>
@@ -22101,20 +22150,16 @@
         <v>73</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>692</v>
+        <v>102</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>693</v>
+        <v>479</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="O191" t="s" s="2">
-        <v>694</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="N191" s="2"/>
+      <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
         <v>73</v>
       </c>
@@ -22150,39 +22195,39 @@
         <v>73</v>
       </c>
       <c r="AB191" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="AC191" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="AD191" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>691</v>
+        <v>109</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH191" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI191" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ191" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>695</v>
+        <v>597</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>695</v>
+        <v>491</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -22190,13 +22235,13 @@
       </c>
       <c r="E192" s="2"/>
       <c r="F192" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G192" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H192" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I192" t="s" s="2">
         <v>73</v>
@@ -22205,26 +22250,24 @@
         <v>73</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>696</v>
+        <v>128</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>697</v>
+        <v>205</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>698</v>
+        <v>206</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="O192" t="s" s="2">
-        <v>699</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q192" s="2"/>
       <c r="R192" t="s" s="2">
-        <v>73</v>
+        <v>492</v>
       </c>
       <c r="S192" t="s" s="2">
         <v>73</v>
@@ -22266,23 +22309,3311 @@
         <v>73</v>
       </c>
       <c r="AF192" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AG192" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH192" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI192" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ192" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="193" hidden="true">
+      <c r="A193" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="B193" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C193" s="2"/>
+      <c r="D193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E193" s="2"/>
+      <c r="F193" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G193" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K193" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L193" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M193" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N193" s="2"/>
+      <c r="O193" s="2"/>
+      <c r="P193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q193" s="2"/>
+      <c r="R193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S193" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="T193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X193" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Y193" s="2"/>
+      <c r="Z193" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AA193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE193" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF193" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AG193" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH193" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI193" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ193" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="194" hidden="true">
+      <c r="A194" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="B194" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C194" s="2"/>
+      <c r="D194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E194" s="2"/>
+      <c r="F194" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G194" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K194" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L194" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M194" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N194" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O194" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="P194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q194" s="2"/>
+      <c r="R194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE194" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF194" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AG194" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH194" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI194" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ194" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="195" hidden="true">
+      <c r="A195" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="B195" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C195" s="2"/>
+      <c r="D195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E195" s="2"/>
+      <c r="F195" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G195" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K195" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L195" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M195" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N195" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O195" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="P195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q195" s="2"/>
+      <c r="R195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF195" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AG195" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH195" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI195" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ195" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="196" hidden="true">
+      <c r="A196" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="B196" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="C196" s="2"/>
+      <c r="D196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E196" s="2"/>
+      <c r="F196" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G196" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K196" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L196" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M196" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="N196" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="O196" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="P196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q196" s="2"/>
+      <c r="R196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF196" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AG196" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH196" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI196" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AJ196" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="197" hidden="true">
+      <c r="A197" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="B197" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="C197" s="2"/>
+      <c r="D197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E197" s="2"/>
+      <c r="F197" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G197" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H197" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K197" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L197" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M197" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="N197" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="O197" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="P197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q197" s="2"/>
+      <c r="R197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE197" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF197" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AG197" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH197" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI197" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ197" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="198" hidden="true">
+      <c r="A198" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B198" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="C198" s="2"/>
+      <c r="D198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E198" s="2"/>
+      <c r="F198" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G198" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K198" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L198" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M198" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N198" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="O198" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="P198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q198" s="2"/>
+      <c r="R198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB198" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AC198" s="2"/>
+      <c r="AD198" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE198" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AF198" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AG198" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH198" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI198" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AJ198" t="s" s="2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="199" hidden="true">
+      <c r="A199" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="B199" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="C199" s="2"/>
+      <c r="D199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E199" s="2"/>
+      <c r="F199" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G199" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K199" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L199" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M199" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N199" s="2"/>
+      <c r="O199" s="2"/>
+      <c r="P199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q199" s="2"/>
+      <c r="R199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF199" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG199" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH199" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ199" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="200" hidden="true">
+      <c r="A200" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="B200" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="C200" s="2"/>
+      <c r="D200" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="E200" s="2"/>
+      <c r="F200" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G200" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K200" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L200" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M200" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N200" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O200" s="2"/>
+      <c r="P200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q200" s="2"/>
+      <c r="R200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB200" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AC200" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AD200" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE200" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AF200" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG200" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH200" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI200" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ200" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="201" hidden="true">
+      <c r="A201" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="B201" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="C201" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="D201" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="E201" s="2"/>
+      <c r="F201" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G201" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K201" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="L201" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="M201" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N201" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O201" s="2"/>
+      <c r="P201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q201" s="2"/>
+      <c r="R201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE201" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF201" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG201" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH201" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI201" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ201" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="202" hidden="true">
+      <c r="A202" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="B202" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="C202" s="2"/>
+      <c r="D202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E202" s="2"/>
+      <c r="F202" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G202" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J202" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K202" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L202" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M202" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N202" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O202" s="2"/>
+      <c r="P202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q202" s="2"/>
+      <c r="R202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X202" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Y202" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="Z202" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AA202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE202" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF202" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AG202" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH202" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI202" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AJ202" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="203" hidden="true">
+      <c r="A203" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="B203" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="C203" s="2"/>
+      <c r="D203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E203" s="2"/>
+      <c r="F203" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G203" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J203" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K203" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L203" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="M203" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="N203" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="O203" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="P203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q203" s="2"/>
+      <c r="R203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE203" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF203" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AG203" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH203" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI203" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ203" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="204" hidden="true">
+      <c r="A204" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="B204" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="C204" s="2"/>
+      <c r="D204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E204" s="2"/>
+      <c r="F204" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G204" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J204" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K204" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L204" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="M204" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="N204" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="O204" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="P204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q204" s="2"/>
+      <c r="R204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X204" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Y204" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="Z204" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AA204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE204" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF204" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AG204" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH204" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI204" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ204" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="205" hidden="true">
+      <c r="A205" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="B205" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="C205" s="2"/>
+      <c r="D205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E205" s="2"/>
+      <c r="F205" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G205" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J205" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K205" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="L205" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="M205" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="N205" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="O205" s="2"/>
+      <c r="P205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q205" s="2"/>
+      <c r="R205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE205" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF205" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="AG205" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH205" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI205" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ205" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="206" hidden="true">
+      <c r="A206" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="B206" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="C206" s="2"/>
+      <c r="D206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E206" s="2"/>
+      <c r="F206" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G206" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J206" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K206" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L206" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="M206" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="N206" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O206" s="2"/>
+      <c r="P206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q206" s="2"/>
+      <c r="R206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE206" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF206" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AG206" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH206" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI206" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ206" t="s" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="207" hidden="true">
+      <c r="A207" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="B207" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="C207" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="D207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E207" s="2"/>
+      <c r="F207" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G207" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K207" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="L207" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="M207" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N207" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="O207" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="P207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q207" s="2"/>
+      <c r="R207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE207" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF207" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AG207" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH207" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI207" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ207" t="s" s="2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="208" hidden="true">
+      <c r="A208" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="B208" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="C208" s="2"/>
+      <c r="D208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E208" s="2"/>
+      <c r="F208" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G208" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K208" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="L208" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="M208" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="N208" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="O208" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="P208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q208" s="2"/>
+      <c r="R208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE208" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF208" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="AG208" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH208" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI208" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ208" t="s" s="2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="209" hidden="true">
+      <c r="A209" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="B209" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="C209" s="2"/>
+      <c r="D209" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E209" s="2"/>
+      <c r="F209" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G209" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H209" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I209" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K209" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="L209" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="M209" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="N209" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="O209" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="P209" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q209" s="2"/>
+      <c r="R209" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S209" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T209" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U209" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V209" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W209" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X209" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y209" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z209" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA209" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB209" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC209" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD209" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE209" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF209" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="AG209" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH209" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI209" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ209" t="s" s="2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="210" hidden="true">
+      <c r="A210" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="B210" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="C210" s="2"/>
+      <c r="D210" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E210" s="2"/>
+      <c r="F210" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G210" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H210" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I210" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J210" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K210" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L210" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M210" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N210" s="2"/>
+      <c r="O210" s="2"/>
+      <c r="P210" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q210" s="2"/>
+      <c r="R210" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S210" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T210" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U210" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V210" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W210" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X210" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y210" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z210" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA210" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB210" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC210" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD210" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE210" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF210" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG210" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH210" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI210" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ210" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="211" hidden="true">
+      <c r="A211" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="B211" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="C211" s="2"/>
+      <c r="D211" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="E211" s="2"/>
+      <c r="F211" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G211" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H211" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I211" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J211" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K211" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L211" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M211" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N211" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O211" s="2"/>
+      <c r="P211" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q211" s="2"/>
+      <c r="R211" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S211" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T211" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U211" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V211" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W211" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X211" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y211" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z211" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA211" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB211" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AC211" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AD211" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE211" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AF211" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG211" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH211" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI211" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ211" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="212" hidden="true">
+      <c r="A212" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="B212" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="C212" s="2"/>
+      <c r="D212" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E212" s="2"/>
+      <c r="F212" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G212" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H212" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I212" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J212" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K212" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L212" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="M212" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="N212" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="O212" s="2"/>
+      <c r="P212" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q212" s="2"/>
+      <c r="R212" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S212" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T212" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U212" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V212" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W212" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X212" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y212" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z212" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA212" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB212" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC212" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD212" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE212" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF212" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="AG212" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH212" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI212" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AJ212" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="213" hidden="true">
+      <c r="A213" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="B213" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="C213" s="2"/>
+      <c r="D213" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E213" s="2"/>
+      <c r="F213" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G213" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H213" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I213" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J213" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K213" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L213" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="M213" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="N213" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="O213" s="2"/>
+      <c r="P213" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q213" s="2"/>
+      <c r="R213" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S213" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T213" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U213" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V213" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W213" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X213" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Y213" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="Z213" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AA213" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB213" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC213" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD213" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE213" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF213" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="AG213" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH213" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI213" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ213" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="214" hidden="true">
+      <c r="A214" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="B214" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="C214" s="2"/>
+      <c r="D214" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E214" s="2"/>
+      <c r="F214" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G214" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H214" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I214" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J214" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K214" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L214" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="M214" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="N214" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="O214" s="2"/>
+      <c r="P214" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q214" s="2"/>
+      <c r="R214" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S214" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T214" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U214" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V214" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W214" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X214" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y214" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z214" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA214" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB214" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC214" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD214" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE214" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF214" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AG214" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH214" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI214" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ214" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="215" hidden="true">
+      <c r="A215" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="B215" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="C215" s="2"/>
+      <c r="D215" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E215" s="2"/>
+      <c r="F215" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G215" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H215" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I215" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J215" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K215" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L215" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="M215" t="s" s="2">
         <v>695</v>
       </c>
-      <c r="AG192" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH192" t="s" s="2">
+      <c r="N215" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="O215" s="2"/>
+      <c r="P215" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q215" s="2"/>
+      <c r="R215" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S215" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T215" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U215" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V215" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W215" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X215" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y215" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z215" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA215" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB215" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC215" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD215" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE215" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF215" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="AG215" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH215" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI215" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ215" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="216" hidden="true">
+      <c r="A216" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="B216" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="C216" s="2"/>
+      <c r="D216" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E216" s="2"/>
+      <c r="F216" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G216" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AI192" t="s" s="2">
+      <c r="H216" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I216" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J216" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K216" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="L216" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="M216" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="N216" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="O216" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="P216" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q216" s="2"/>
+      <c r="R216" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S216" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T216" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U216" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V216" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W216" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X216" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y216" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z216" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA216" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB216" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC216" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD216" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE216" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF216" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="AG216" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH216" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI216" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AJ192" t="s" s="2">
+      <c r="AJ216" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="217" hidden="true">
+      <c r="A217" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="B217" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="C217" s="2"/>
+      <c r="D217" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E217" s="2"/>
+      <c r="F217" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G217" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H217" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I217" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J217" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K217" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L217" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M217" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N217" s="2"/>
+      <c r="O217" s="2"/>
+      <c r="P217" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q217" s="2"/>
+      <c r="R217" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S217" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T217" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U217" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V217" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W217" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X217" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y217" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z217" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA217" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB217" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC217" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD217" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE217" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF217" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG217" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH217" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI217" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ217" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="218" hidden="true">
+      <c r="A218" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="B218" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="C218" s="2"/>
+      <c r="D218" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="E218" s="2"/>
+      <c r="F218" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G218" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H218" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I218" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J218" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K218" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L218" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M218" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N218" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O218" s="2"/>
+      <c r="P218" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q218" s="2"/>
+      <c r="R218" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S218" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T218" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U218" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V218" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W218" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X218" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y218" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z218" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA218" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB218" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AC218" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AD218" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE218" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AF218" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG218" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH218" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI218" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ218" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="219" hidden="true">
+      <c r="A219" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="B219" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="C219" s="2"/>
+      <c r="D219" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="E219" s="2"/>
+      <c r="F219" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G219" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H219" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I219" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J219" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K219" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L219" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="M219" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="N219" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O219" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="P219" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q219" s="2"/>
+      <c r="R219" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S219" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T219" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U219" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V219" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W219" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X219" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y219" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z219" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA219" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB219" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC219" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD219" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE219" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF219" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="AG219" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH219" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI219" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ219" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="220" hidden="true">
+      <c r="A220" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="B220" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="C220" s="2"/>
+      <c r="D220" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E220" s="2"/>
+      <c r="F220" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G220" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H220" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I220" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J220" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K220" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L220" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="M220" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="N220" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="O220" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="P220" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q220" s="2"/>
+      <c r="R220" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S220" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T220" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U220" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V220" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W220" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X220" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Y220" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="Z220" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="AA220" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB220" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC220" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD220" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE220" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF220" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="AG220" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH220" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI220" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ220" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="221" hidden="true">
+      <c r="A221" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="B221" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="C221" s="2"/>
+      <c r="D221" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E221" s="2"/>
+      <c r="F221" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G221" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H221" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I221" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J221" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K221" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="L221" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="M221" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="N221" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="O221" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="P221" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q221" s="2"/>
+      <c r="R221" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S221" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T221" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U221" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V221" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W221" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X221" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y221" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z221" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA221" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB221" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC221" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD221" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE221" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF221" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="AG221" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH221" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI221" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ221" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="222" hidden="true">
+      <c r="A222" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="B222" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="C222" s="2"/>
+      <c r="D222" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E222" s="2"/>
+      <c r="F222" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G222" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H222" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I222" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J222" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K222" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L222" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="M222" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N222" s="2"/>
+      <c r="O222" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="P222" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q222" s="2"/>
+      <c r="R222" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S222" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T222" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U222" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V222" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W222" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X222" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y222" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z222" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA222" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB222" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC222" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD222" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE222" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF222" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="AG222" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH222" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI222" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ222" t="s" s="2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="223" hidden="true">
+      <c r="A223" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="B223" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="C223" s="2"/>
+      <c r="D223" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E223" s="2"/>
+      <c r="F223" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G223" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H223" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I223" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J223" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K223" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="L223" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="M223" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="N223" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="O223" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="P223" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q223" s="2"/>
+      <c r="R223" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S223" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T223" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U223" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V223" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W223" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X223" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y223" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z223" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA223" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB223" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC223" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD223" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE223" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF223" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="AG223" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH223" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI223" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ223" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="224" hidden="true">
+      <c r="A224" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="B224" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="C224" s="2"/>
+      <c r="D224" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E224" s="2"/>
+      <c r="F224" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G224" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H224" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I224" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J224" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K224" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="L224" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="M224" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="N224" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="O224" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="P224" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q224" s="2"/>
+      <c r="R224" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S224" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T224" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U224" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V224" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W224" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X224" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y224" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z224" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA224" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB224" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC224" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD224" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE224" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF224" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="AG224" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH224" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI224" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ224" t="s" s="2">
         <v>323</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ192">
+  <autoFilter ref="A1:AJ224">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -22292,7 +25623,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI191">
+  <conditionalFormatting sqref="A2:AI223">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-dr-organization.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-dr-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1065,7 +1065,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://interopsante.org/CodeSystem/fr-v2-0203"/&gt;
+    &lt;system value="https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-0203"/&gt;
     &lt;code value="IDNST"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1297,7 +1297,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://interopsante.org/CodeSystem/fr-v2-0203</t>
+    <t>https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-0203</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1442,7 +1442,7 @@
     <t>Organization.identifier:sirene.system</t>
   </si>
   <si>
-    <t>http://sirene.fr</t>
+    <t>https://sirene.fr</t>
   </si>
   <si>
     <t>Organization.identifier:sirene.value</t>
@@ -1520,7 +1520,7 @@
     <t>Organization.identifier:finess.system</t>
   </si>
   <si>
-    <t>http://finess.esante.gouv.fr</t>
+    <t>https://finess.esante.gouv.fr</t>
   </si>
   <si>
     <t>Organization.identifier:finess.value</t>
@@ -1555,7 +1555,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://interopsante.org/CodeSystem/fr-v2-0203"/&gt;
+    &lt;system value="https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-0203"/&gt;
     &lt;code value="INTRN"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
